--- a/timing_results_RBN.xlsx
+++ b/timing_results_RBN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>PyBoolNet</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -379,25 +379,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>CABEAN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>stable_motifs_new</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>sm_jgtz</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CABEAN</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PyBoolNet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
@@ -408,24 +403,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.09534485599942855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5300069479999365</v>
+        <v>0.2510121180021088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2809240110000246</v>
+        <v>0.06004516299799434</v>
       </c>
       <c r="E2" t="n">
-        <v>4.224475338000047</v>
+        <v>0.1329945300021791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09230434600067383</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2098374769993825</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>2.70644859100139</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_0</t>
         </is>
@@ -436,24 +428,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.1221534539981803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1906686290003563</v>
+        <v>0.1186197509996418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2593797949994041</v>
+        <v>0.06218607700066059</v>
       </c>
       <c r="E3" t="n">
-        <v>3.127391592999629</v>
+        <v>0.177964605998568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1147668450012134</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2194268530001864</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>2.467197415997362</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_1</t>
         </is>
@@ -464,24 +453,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0.184239999998681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1805612770003791</v>
+        <v>0.1231813010017504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2713892480005597</v>
+        <v>0.04696938300185138</v>
       </c>
       <c r="E4" t="n">
-        <v>3.252943834999314</v>
+        <v>0.14207198800068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1020305389993155</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3917691120004747</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>3.106283708002593</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_2</t>
         </is>
@@ -492,24 +478,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0.1696689679993142</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1826757260005252</v>
+        <v>0.1185400939975807</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6077826179989643</v>
+        <v>0.04660838400013745</v>
       </c>
       <c r="E5" t="n">
-        <v>5.710828773000685</v>
+        <v>0.2829009910019522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1002390060002654</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3221657880003477</v>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>6.032988160000968</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_3</t>
         </is>
@@ -520,24 +503,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0.231697275001352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1699728130006406</v>
+        <v>0.1206419080008345</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2358723799989093</v>
+        <v>0.05941636599891353</v>
       </c>
       <c r="E6" t="n">
-        <v>3.218466907999755</v>
+        <v>0.2346709070006909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08490518899998278</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4896239069985313</v>
-      </c>
-      <c r="H6" t="inlineStr">
+        <v>3.58377419899989</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_4</t>
         </is>
@@ -548,24 +528,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0.08898271400175872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2221740980003233</v>
+        <v>0.1525349730000016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1575414079998154</v>
+        <v>0.06049896799959242</v>
       </c>
       <c r="E7" t="n">
-        <v>2.179679962000591</v>
+        <v>0.1113852320013393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1107912229999783</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1230827609997505</v>
-      </c>
-      <c r="H7" t="inlineStr">
+        <v>3.238812100000359</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_5</t>
         </is>
@@ -576,24 +553,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0.08614430699890363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1801540159995056</v>
+        <v>0.156334675000835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1108568579984421</v>
+        <v>0.05448651900223922</v>
       </c>
       <c r="E8" t="n">
-        <v>2.626550400000269</v>
+        <v>0.1348060800009989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1198368310015212</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06622562099983043</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>2.949518191999232</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_6</t>
         </is>
@@ -604,24 +578,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>0.2731644109990157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1937491879998561</v>
+        <v>0.1660546599996451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5639961300003051</v>
+        <v>0.06857059100002516</v>
       </c>
       <c r="E9" t="n">
-        <v>4.505216192999796</v>
+        <v>0.6817707449990849</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1044667980004306</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4646431429991935</v>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>5.849066647002473</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_7</t>
         </is>
@@ -632,24 +603,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>0.3468823980001616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5416127940006845</v>
+        <v>0.4281494790011493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2496979170009581</v>
+        <v>0.0947410230000969</v>
       </c>
       <c r="E10" t="n">
-        <v>3.71897521900064</v>
+        <v>0.2438025509982253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1296933440007706</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5333676700010983</v>
-      </c>
-      <c r="H10" t="inlineStr">
+        <v>4.566221344000951</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_8</t>
         </is>
@@ -660,24 +628,21 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>0.511811451997346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1907488529996044</v>
+        <v>0.2123173399995721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7613336580016039</v>
+        <v>0.0768763449996186</v>
       </c>
       <c r="E11" t="n">
-        <v>5.139532107999912</v>
+        <v>0.4155885159998434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1197142879991588</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.725297398001203</v>
-      </c>
-      <c r="H11" t="inlineStr">
+        <v>7.287692517998948</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>rbn_N_10_ens_9</t>
         </is>
@@ -688,24 +653,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>1.381255282001803</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2769801829999778</v>
+        <v>0.2884782700020878</v>
       </c>
       <c r="D12" t="n">
-        <v>1.540787185998852</v>
+        <v>0.1268603729986353</v>
       </c>
       <c r="E12" t="n">
-        <v>9.524169852000341</v>
+        <v>1.461732267998741</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1925731889987219</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.331284034000419</v>
-      </c>
-      <c r="H12" t="inlineStr">
+        <v>13.16589577899867</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_0</t>
         </is>
@@ -715,21 +677,20 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0.7694339049994596</v>
+      </c>
       <c r="C13" t="n">
-        <v>0.4224080829990271</v>
+        <v>0.2046847569981765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4265548499988654</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.2004091369999514</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8238685630003602</v>
-      </c>
-      <c r="H13" t="inlineStr">
+        <v>0.1565048669981479</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3768709409996518</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_1</t>
         </is>
@@ -739,23 +700,22 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.4125266849987383</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.17067150100047</v>
+        <v>0.2097843349984032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.342070202999821</v>
+        <v>0.1429531190005946</v>
       </c>
       <c r="E14" t="n">
-        <v>4.794865152000057</v>
+        <v>0.3699066720000701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1173022849998233</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3607687319999968</v>
-      </c>
-      <c r="H14" t="inlineStr">
+        <v>6.526177662999544</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_2</t>
         </is>
@@ -765,23 +725,22 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.7224018839988275</v>
+      </c>
       <c r="C15" t="n">
-        <v>0.177888382000674</v>
+        <v>0.1855573909997474</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6088440570001694</v>
+        <v>0.1230680039989238</v>
       </c>
       <c r="E15" t="n">
-        <v>17.44571128400094</v>
+        <v>0.6935721810004907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1159051960003126</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.696625861000939</v>
-      </c>
-      <c r="H15" t="inlineStr">
+        <v>16.67431169799966</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_3</t>
         </is>
@@ -791,23 +750,22 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1.126297135997447</v>
+      </c>
       <c r="C16" t="n">
-        <v>0.2396205610002653</v>
+        <v>0.2163576880011533</v>
       </c>
       <c r="D16" t="n">
-        <v>3.305750137000359</v>
+        <v>0.1215475749995676</v>
       </c>
       <c r="E16" t="n">
-        <v>34.2783297320002</v>
+        <v>3.324736664999364</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1331070719988929</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.297594582001693</v>
-      </c>
-      <c r="H16" t="inlineStr">
+        <v>40.49023525099983</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_4</t>
         </is>
@@ -817,21 +775,20 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1.663704023998434</v>
+      </c>
       <c r="C17" t="n">
-        <v>4.515517342999374</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.343812450999394</v>
-      </c>
+        <v>4.893771416001982</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>3.680218378000063</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1.471724563998578</v>
-      </c>
-      <c r="H17" t="inlineStr">
+        <v>2.302012098996784</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.936575785999594</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_5</t>
         </is>
@@ -841,23 +798,22 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.1655621540012362</v>
+      </c>
       <c r="C18" t="n">
-        <v>0.1835318439989351</v>
+        <v>0.193999712002551</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1372144189990649</v>
+        <v>0.1048384729983809</v>
       </c>
       <c r="E18" t="n">
-        <v>4.847096626999701</v>
+        <v>0.1336788529988553</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1121836860002077</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1693033190003916</v>
-      </c>
-      <c r="H18" t="inlineStr">
+        <v>4.877739209998254</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_6</t>
         </is>
@@ -867,23 +823,22 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1.141385764000006</v>
+      </c>
       <c r="C19" t="n">
-        <v>0.1763142010004231</v>
+        <v>0.2055602120017284</v>
       </c>
       <c r="D19" t="n">
-        <v>1.77817883300122</v>
+        <v>0.08123193199935486</v>
       </c>
       <c r="E19" t="n">
-        <v>15.16841642700092</v>
+        <v>1.70054670099853</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08564785799899255</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.086606357001074</v>
-      </c>
-      <c r="H19" t="inlineStr">
+        <v>14.09607317799964</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_7</t>
         </is>
@@ -893,23 +848,22 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0.2491702670013183</v>
+      </c>
       <c r="C20" t="n">
-        <v>0.1870445880012994</v>
+        <v>0.1903884919993288</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1268869370014727</v>
+        <v>0.1361031999986153</v>
       </c>
       <c r="E20" t="n">
-        <v>5.045344091999141</v>
+        <v>0.2335783500020625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1199142100012978</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2469866360006563</v>
-      </c>
-      <c r="H20" t="inlineStr">
+        <v>5.698784143001831</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_8</t>
         </is>
@@ -919,23 +873,22 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0.2718096120006521</v>
+      </c>
       <c r="C21" t="n">
-        <v>0.1633566479995352</v>
+        <v>0.1974739039978886</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1158166719997098</v>
+        <v>0.1547979230017518</v>
       </c>
       <c r="E21" t="n">
-        <v>5.090987157998825</v>
+        <v>0.1958249170020281</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1114922769993427</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3648464270008844</v>
-      </c>
-      <c r="H21" t="inlineStr">
+        <v>6.335625620999053</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_9</t>
         </is>
@@ -945,23 +898,22 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>3.356224569000915</v>
+      </c>
       <c r="C22" t="n">
-        <v>2.710062087000551</v>
+        <v>3.597844602998521</v>
       </c>
       <c r="D22" t="n">
-        <v>2.8054283700003</v>
+        <v>0.6515524110000115</v>
       </c>
       <c r="E22" t="n">
-        <v>7.40812406799887</v>
+        <v>3.859986095998465</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5458539889987151</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.818064914999923</v>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>10.98078576899934</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_0</t>
         </is>
@@ -971,23 +923,22 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>2.882955786000821</v>
+      </c>
       <c r="C23" t="n">
-        <v>0.3558490959985647</v>
+        <v>0.4357556050017592</v>
       </c>
       <c r="D23" t="n">
-        <v>1.414353043999654</v>
+        <v>0.4887820490002923</v>
       </c>
       <c r="E23" t="n">
-        <v>6.749144399998841</v>
+        <v>1.636994174001302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5008558690005884</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.090089121000346</v>
-      </c>
-      <c r="H23" t="inlineStr">
+        <v>7.542914043002384</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_1</t>
         </is>
@@ -997,23 +948,22 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1.157919530996878</v>
+      </c>
       <c r="C24" t="n">
-        <v>0.5285556710005039</v>
+        <v>0.4083317950025958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4841343119987869</v>
+        <v>0.2923573219995887</v>
       </c>
       <c r="E24" t="n">
-        <v>7.161374221999722</v>
+        <v>0.5482878930015431</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2670250339997438</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.487294913998994</v>
-      </c>
-      <c r="H24" t="inlineStr">
+        <v>7.342933457999607</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_2</t>
         </is>
@@ -1023,23 +973,22 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>0.5424357110023266</v>
+      </c>
       <c r="C25" t="n">
-        <v>0.2123649459990702</v>
+        <v>0.1931455400008417</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1412286750000931</v>
+        <v>0.2962465559976408</v>
       </c>
       <c r="E25" t="n">
-        <v>5.330205944999761</v>
+        <v>0.1346206700000039</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2828123879990017</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.663563565000004</v>
-      </c>
-      <c r="H25" t="inlineStr">
+        <v>5.583756070001982</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_3</t>
         </is>
@@ -1049,23 +998,22 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>0.3475871509981516</v>
+      </c>
       <c r="C26" t="n">
-        <v>0.1872223070004111</v>
+        <v>0.1504990209978132</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316514897000161</v>
+        <v>0.3073166329995729</v>
       </c>
       <c r="E26" t="n">
-        <v>4.677886879000653</v>
+        <v>0.1719310689986742</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4038814310006273</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5885336770006688</v>
-      </c>
-      <c r="H26" t="inlineStr">
+        <v>4.065447345001303</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_4</t>
         </is>
@@ -1075,23 +1023,22 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>3.22584250699947</v>
+      </c>
       <c r="C27" t="n">
-        <v>0.2186200209998788</v>
+        <v>0.1894428399973549</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7414501140010543</v>
+        <v>0.3024527599991416</v>
       </c>
       <c r="E27" t="n">
-        <v>7.351771931000258</v>
+        <v>0.3590954289975343</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3506922329997906</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.695251037999697</v>
-      </c>
-      <c r="H27" t="inlineStr">
+        <v>6.994186177998927</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_5</t>
         </is>
@@ -1101,23 +1048,22 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>1.106460066999716</v>
+      </c>
       <c r="C28" t="n">
-        <v>0.2120381629993062</v>
+        <v>0.1684993950002536</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5818640970010165</v>
+        <v>0.2731786490003287</v>
       </c>
       <c r="E28" t="n">
-        <v>4.630825434000144</v>
+        <v>0.3643523089995142</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3262290149996261</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.333149407999372</v>
-      </c>
-      <c r="H28" t="inlineStr">
+        <v>4.397364133001247</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_6</t>
         </is>
@@ -1127,23 +1073,22 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>3.620480270998087</v>
+      </c>
       <c r="C29" t="n">
-        <v>0.5516842100005306</v>
+        <v>0.4828536329987401</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4831944810011919</v>
+        <v>0.4364428330009105</v>
       </c>
       <c r="E29" t="n">
-        <v>14.64063736099888</v>
+        <v>0.4169251230014197</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5219101950006007</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.838928415998453</v>
-      </c>
-      <c r="H29" t="inlineStr">
+        <v>17.44735613000012</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_7</t>
         </is>
@@ -1153,21 +1098,20 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0.8052335510001285</v>
+      </c>
       <c r="C30" t="n">
-        <v>3.751022230999297</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>7.317415147999782</v>
-      </c>
+        <v>3.170817541002179</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.639477728000202</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1.975974799999676</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.173228836998533</v>
-      </c>
-      <c r="H30" t="inlineStr">
+        <v>6.890114080000785</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_8</t>
         </is>
@@ -1177,25 +1121,478 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>2.813795588997891</v>
+      </c>
       <c r="C31" t="n">
-        <v>0.2561006129999441</v>
+        <v>0.1533563809971383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8801238039995951</v>
+        <v>0.3474650559983274</v>
       </c>
       <c r="E31" t="n">
-        <v>8.393451593999998</v>
+        <v>0.464273312001751</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4638837330003298</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.181659412999579</v>
-      </c>
-      <c r="H31" t="inlineStr">
+        <v>6.90769923300104</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>rbn_N_30_ens_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>5.441402168002242</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.057511478000379</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.462056529999245</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.1520239340025</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3512318419998337</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.023496792000515</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7912923769981717</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.31084754200128</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>45.38119801799985</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.291185913003574</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5964285920017574</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6712425700025051</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12.41656074300045</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3.744024224000896</v>
+      </c>
+      <c r="F35" t="n">
+        <v>16.11166666500139</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.214987508999911</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2501633710016904</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8249419929998112</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.335466683998675</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.938482352001301</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9.449070352002309</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2468106269989221</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.269008431998373</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6015396639995743</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.887711468003545</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>39.79402549600127</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.130389800000557</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.604453113999625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5919668249989627</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.301471935999871</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3632923340010166</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.960564082000928</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3634829559996433</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.31205951300217</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.78263022099782</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3552705620022607</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.609702161000314</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8660138849991199</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.98045328199805</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.16832387300019</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3101577079978597</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8591407910025737</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6558334400033345</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.873752498999238</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>rbn_N_40_ens_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>0.4248962530000426</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.357125717000599</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.199431171000469</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16.29396609300238</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>3.799722233998182</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.318291862000478</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14.29005093199885</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>12.11477227199794</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.307753089000471</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.809365891000198</v>
+      </c>
+      <c r="F44" t="n">
+        <v>24.4806257909986</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>0.5122618140012491</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.576383351999539</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.145016596001369</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14.53678869600117</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41.44235247699908</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3.97288507399935</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.954971274997661</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.233620208997309</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19.24156686399874</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>1.882919980002043</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14.26685066999926</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>1.550355298000795</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.925738122001349</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.54648553899824</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20.44437021799968</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>1.773718704000203</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.711988349998137</v>
+      </c>
+      <c r="E50" t="n">
+        <v>35.30828709799971</v>
+      </c>
+      <c r="F50" t="n">
+        <v>43.53139132499928</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>10.884294184998</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>1.684044280002126</v>
+      </c>
+      <c r="F51" t="n">
+        <v>14.58904015000007</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>rbn_N_50_ens_9</t>
         </is>
       </c>
     </row>

--- a/timing_results_RBN.xlsx
+++ b/timing_results_RBN.xlsx
@@ -369,27 +369,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PyBoolNet</t>
+          <t>stablemotifs2013</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>pystablemotifs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>boolsim</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pyboolnet</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CABEAN</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>stable_motifs_new</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sm_jgtz</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -403,19 +403,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09534485599942855</v>
+        <v>2.816107575999922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2510121180021088</v>
+        <v>0.3482214239993482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06004516299799434</v>
+        <v>0.2029658050014405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1329945300021791</v>
+        <v>0.3052865230019961</v>
       </c>
       <c r="F2" t="n">
-        <v>2.70644859100139</v>
+        <v>0.1208032249996904</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1221534539981803</v>
+        <v>2.39715044499826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1186197509996418</v>
+        <v>0.4018756779987598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06218607700066059</v>
+        <v>0.2302165619985317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.177964605998568</v>
+        <v>0.2883120160004182</v>
       </c>
       <c r="F3" t="n">
-        <v>2.467197415997362</v>
+        <v>0.1146022550019552</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -453,19 +453,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184239999998681</v>
+        <v>3.128443495999818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1231813010017504</v>
+        <v>0.3607581729993399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04696938300185138</v>
+        <v>0.203328973002499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.14207198800068</v>
+        <v>0.555615632001718</v>
       </c>
       <c r="F4" t="n">
-        <v>3.106283708002593</v>
+        <v>0.1175555920017359</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -478,19 +478,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1696689679993142</v>
+        <v>5.790937739002402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1185400939975807</v>
+        <v>0.6641437869984657</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04660838400013745</v>
+        <v>0.2060907189988939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2829009910019522</v>
+        <v>0.3948953689978225</v>
       </c>
       <c r="F5" t="n">
-        <v>6.032988160000968</v>
+        <v>0.1128046039993933</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -503,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231697275001352</v>
+        <v>2.626872091001133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1206419080008345</v>
+        <v>0.352215550999972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05941636599891353</v>
+        <v>0.2053544990012597</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2346709070006909</v>
+        <v>0.700277987998561</v>
       </c>
       <c r="F6" t="n">
-        <v>3.58377419899989</v>
+        <v>0.1052705959991727</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08898271400175872</v>
+        <v>2.346924026998749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1525349730000016</v>
+        <v>0.2089758559995971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06049896799959242</v>
+        <v>0.1891919959998631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1113852320013393</v>
+        <v>0.1787561679993814</v>
       </c>
       <c r="F7" t="n">
-        <v>3.238812100000359</v>
+        <v>0.08708969600047567</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -553,19 +553,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08614430699890363</v>
+        <v>2.202774714001862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.156334675000835</v>
+        <v>0.2115470339995227</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05448651900223922</v>
+        <v>0.1914093259983929</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1348060800009989</v>
+        <v>0.1849200699980429</v>
       </c>
       <c r="F8" t="n">
-        <v>2.949518191999232</v>
+        <v>0.1097431859998323</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -578,19 +578,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2731644109990157</v>
+        <v>4.059008562999225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1660546599996451</v>
+        <v>0.9494751880010881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06857059100002516</v>
+        <v>0.2143039949987724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6817707449990849</v>
+        <v>0.5014954600010242</v>
       </c>
       <c r="F9" t="n">
-        <v>5.849066647002473</v>
+        <v>0.07175446099790861</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -603,19 +603,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3468823980001616</v>
+        <v>3.179525236999325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4281494790011493</v>
+        <v>0.353975977999653</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0947410230000969</v>
+        <v>0.3468057620011677</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2438025509982253</v>
+        <v>0.4161453070009884</v>
       </c>
       <c r="F10" t="n">
-        <v>4.566221344000951</v>
+        <v>0.1366277349989105</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -628,19 +628,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.511811451997346</v>
+        <v>4.828619150001032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2123173399995721</v>
+        <v>0.7464202740011388</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0768763449996186</v>
+        <v>0.207591254998988</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4155885159998434</v>
+        <v>0.986826022999594</v>
       </c>
       <c r="F11" t="n">
-        <v>7.287692517998948</v>
+        <v>0.1109559050019016</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -653,19 +653,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.381255282001803</v>
+        <v>9.287200611997832</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2884782700020878</v>
+        <v>1.709130860999721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1268603729986353</v>
+        <v>0.279134566000721</v>
       </c>
       <c r="E12" t="n">
-        <v>1.461732267998741</v>
+        <v>1.594753998997476</v>
       </c>
       <c r="F12" t="n">
-        <v>13.16589577899867</v>
+        <v>0.1187996869994095</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -677,19 +677,19 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.7694339049994596</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.2046847569981765</v>
+        <v>0.413682840000547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1565048669981479</v>
+        <v>0.2477568260001135</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3768709409996518</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>0.8760816210015037</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1510815550027473</v>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_1</t>
@@ -701,19 +701,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4125266849987383</v>
+        <v>5.223668233000353</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2097843349984032</v>
+        <v>0.3529768560001685</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1429531190005946</v>
+        <v>0.1799707889986166</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3699066720000701</v>
+        <v>0.4877361489998293</v>
       </c>
       <c r="F14" t="n">
-        <v>6.526177662999544</v>
+        <v>0.1285727040012716</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7224018839988275</v>
+        <v>15.52750396299962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1855573909997474</v>
+        <v>0.7328855220002879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1230680039989238</v>
+        <v>0.195388700998592</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6935721810004907</v>
+        <v>0.8819278900009522</v>
       </c>
       <c r="F15" t="n">
-        <v>16.67431169799966</v>
+        <v>0.1245249320018047</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -751,19 +751,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.126297135997447</v>
+        <v>34.05618602200047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2163576880011533</v>
+        <v>3.390776322998136</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1215475749995676</v>
+        <v>0.2308912359985698</v>
       </c>
       <c r="E16" t="n">
-        <v>3.324736664999364</v>
+        <v>1.315522058997885</v>
       </c>
       <c r="F16" t="n">
-        <v>40.49023525099983</v>
+        <v>0.1254813680025109</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -776,18 +776,18 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.663704023998434</v>
+        <v>3.576344264001818</v>
       </c>
       <c r="C17" t="n">
-        <v>4.893771416001982</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>2.278113356998801</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.399070572999335</v>
+      </c>
       <c r="E17" t="n">
-        <v>2.302012098996784</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.936575785999594</v>
-      </c>
+        <v>1.342043365999416</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>rbn_N_20_ens_5</t>
@@ -799,19 +799,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1655621540012362</v>
+        <v>4.510915334001766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.193999712002551</v>
+        <v>0.1375344829975802</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1048384729983809</v>
+        <v>0.1715235289993871</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1336788529988553</v>
+        <v>0.1818155369983288</v>
       </c>
       <c r="F18" t="n">
-        <v>4.877739209998254</v>
+        <v>0.1138507510004274</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -824,19 +824,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.141385764000006</v>
+        <v>12.76783441600128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2055602120017284</v>
+        <v>1.955411662002007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08123193199935486</v>
+        <v>0.2520829140012211</v>
       </c>
       <c r="E19" t="n">
-        <v>1.70054670099853</v>
+        <v>1.442447370998707</v>
       </c>
       <c r="F19" t="n">
-        <v>14.09607317799964</v>
+        <v>0.1461025940006948</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -849,19 +849,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2491702670013183</v>
+        <v>5.979419733001123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1903884919993288</v>
+        <v>0.1941930909997609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1361031999986153</v>
+        <v>0.185525102999236</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2335783500020625</v>
+        <v>0.2449712999987241</v>
       </c>
       <c r="F20" t="n">
-        <v>5.698784143001831</v>
+        <v>0.1172666540005594</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -874,19 +874,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2718096120006521</v>
+        <v>5.768165983001381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1974739039978886</v>
+        <v>0.1418027039981098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1547979230017518</v>
+        <v>0.1661303230030171</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1958249170020281</v>
+        <v>0.2739668089998304</v>
       </c>
       <c r="F21" t="n">
-        <v>6.335625620999053</v>
+        <v>0.1290976100026455</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -899,19 +899,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.356224569000915</v>
+        <v>9.184503907003091</v>
       </c>
       <c r="C22" t="n">
-        <v>3.597844602998521</v>
+        <v>3.098285720003332</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6515524110000115</v>
+        <v>2.613694429001043</v>
       </c>
       <c r="E22" t="n">
-        <v>3.859986095998465</v>
+        <v>2.813107855999988</v>
       </c>
       <c r="F22" t="n">
-        <v>10.98078576899934</v>
+        <v>0.5289964779985894</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.882955786000821</v>
+        <v>8.037776385001052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4357556050017592</v>
+        <v>1.394200570997782</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4887820490002923</v>
+        <v>0.3496560079984192</v>
       </c>
       <c r="E23" t="n">
-        <v>1.636994174001302</v>
+        <v>1.946488589997898</v>
       </c>
       <c r="F23" t="n">
-        <v>7.542914043002384</v>
+        <v>0.4100727639997785</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.157919530996878</v>
+        <v>6.520502592000412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4083317950025958</v>
+        <v>0.9247030149999773</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2923573219995887</v>
+        <v>0.4287645930016879</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5482878930015431</v>
+        <v>1.276797746999364</v>
       </c>
       <c r="F24" t="n">
-        <v>7.342933457999607</v>
+        <v>0.3086421650004922</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -974,19 +974,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5424357110023266</v>
+        <v>4.946379343997251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1931455400008417</v>
+        <v>0.2543439210021461</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2962465559976408</v>
+        <v>0.2498227790019882</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1346206700000039</v>
+        <v>0.6626236660013092</v>
       </c>
       <c r="F25" t="n">
-        <v>5.583756070001982</v>
+        <v>0.2969785280001815</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -999,19 +999,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3475871509981516</v>
+        <v>4.043093452997709</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1504990209978132</v>
+        <v>0.4059022920009738</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3073166329995729</v>
+        <v>0.2176236080013041</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1719310689986742</v>
+        <v>0.6230719599989243</v>
       </c>
       <c r="F26" t="n">
-        <v>4.065447345001303</v>
+        <v>0.323262842000986</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1024,19 +1024,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.22584250699947</v>
+        <v>7.188233595999918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1894428399973549</v>
+        <v>0.8037506389991904</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3024527599991416</v>
+        <v>0.2803027640002256</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3590954289975343</v>
+        <v>3.519906339999579</v>
       </c>
       <c r="F27" t="n">
-        <v>6.994186177998927</v>
+        <v>0.3705289730023651</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.106460066999716</v>
+        <v>4.167246681998222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1684993950002536</v>
+        <v>0.7479039760000887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2731786490003287</v>
+        <v>0.2543918320006924</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3643523089995142</v>
+        <v>1.423770232999232</v>
       </c>
       <c r="F28" t="n">
-        <v>4.397364133001247</v>
+        <v>0.2708265830005985</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1074,19 +1074,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.620480270998087</v>
+        <v>14.63108297000144</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4828536329987401</v>
+        <v>0.7357827879968681</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4364428330009105</v>
+        <v>0.468752961998689</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4169251230014197</v>
+        <v>3.827274822000618</v>
       </c>
       <c r="F29" t="n">
-        <v>17.44735613000012</v>
+        <v>0.3951972100003331</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1099,17 +1099,17 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8052335510001285</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.170817541002179</v>
-      </c>
+        <v>6.712170533999597</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1.639477728000202</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>3.792103237999982</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.344429603999743</v>
+      </c>
       <c r="F30" t="n">
-        <v>6.890114080000785</v>
+        <v>1.87886903099934</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.813795588997891</v>
+        <v>7.869953555000393</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1533563809971383</v>
+        <v>0.9404475830015144</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3474650559983274</v>
+        <v>0.1783406079994165</v>
       </c>
       <c r="E31" t="n">
-        <v>0.464273312001751</v>
+        <v>3.167402473001857</v>
       </c>
       <c r="F31" t="n">
-        <v>6.90769923300104</v>
+        <v>0.4198399130000325</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>5.441402168002242</v>
+        <v>7.757465188002243</v>
       </c>
       <c r="D32" t="n">
-        <v>2.057511478000379</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7.462056529999245</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>8.277651518001221</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.239539831000002</v>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>rbn_N_40_ens_0</t>
@@ -1168,19 +1168,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.1520239340025</v>
+        <v>11.14192013600041</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3512318419998337</v>
+        <v>0.7896092549999594</v>
       </c>
       <c r="D33" t="n">
-        <v>1.023496792000515</v>
+        <v>0.3991409689988359</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7912923769981717</v>
+        <v>7.654464424998878</v>
       </c>
       <c r="F33" t="n">
-        <v>11.31084754200128</v>
+        <v>1.278942770997674</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1193,19 +1193,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>45.38119801799985</v>
+        <v>14.5551354379968</v>
       </c>
       <c r="C34" t="n">
-        <v>2.291185913003574</v>
+        <v>0.8713450650029699</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5964285920017574</v>
+        <v>2.399778258000879</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6712425700025051</v>
+        <v>44.02920278300007</v>
       </c>
       <c r="F34" t="n">
-        <v>12.41656074300045</v>
+        <v>0.8476107290007349</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1217,15 +1217,15 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>13.83775812900058</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.779904418002843</v>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>3.744024224000896</v>
-      </c>
-      <c r="F35" t="n">
-        <v>16.11166666500139</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>rbn_N_40_ens_3</t>
@@ -1237,19 +1237,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.214987508999911</v>
+        <v>7.958376759001112</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2501633710016904</v>
+        <v>4.195587622998573</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8249419929998112</v>
+        <v>0.2388903249993746</v>
       </c>
       <c r="E36" t="n">
-        <v>3.335466683998675</v>
+        <v>5.207458398999734</v>
       </c>
       <c r="F36" t="n">
-        <v>6.938482352001301</v>
+        <v>1.039630592000321</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1262,19 +1262,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.449070352002309</v>
+        <v>8.223042262998206</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2468106269989221</v>
+        <v>0.6111867010004062</v>
       </c>
       <c r="D37" t="n">
-        <v>1.269008431998373</v>
+        <v>0.2546555279986933</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6015396639995743</v>
+        <v>10.00568911699884</v>
       </c>
       <c r="F37" t="n">
-        <v>7.887711468003545</v>
+        <v>1.173411218998808</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1286,19 +1286,17 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>39.79402549600127</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>2.130389800000557</v>
+        <v>0.7073864619997039</v>
       </c>
       <c r="D38" t="n">
-        <v>1.604453113999625</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5919668249989627</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>2.913276628001768</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>2.902046652001445</v>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>rbn_N_40_ens_6</t>
@@ -1310,19 +1308,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.301471935999871</v>
+        <v>14.53101636499923</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3632923340010166</v>
+        <v>0.4664542259997688</v>
       </c>
       <c r="D39" t="n">
-        <v>1.960564082000928</v>
+        <v>0.3632794039986038</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3634829559996433</v>
+        <v>10.30452023199905</v>
       </c>
       <c r="F39" t="n">
-        <v>10.31205951300217</v>
+        <v>2.266969419000816</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1335,19 +1333,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.78263022099782</v>
+        <v>14.58469460899869</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3552705620022607</v>
+        <v>0.8684704830011469</v>
       </c>
       <c r="D40" t="n">
-        <v>1.609702161000314</v>
+        <v>0.3620577049987332</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8660138849991199</v>
+        <v>15.98418886199943</v>
       </c>
       <c r="F40" t="n">
-        <v>10.98045328199805</v>
+        <v>1.562027946998569</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1360,19 +1358,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.16832387300019</v>
+        <v>8.087895639000635</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3101577079978597</v>
+        <v>0.6811652430005779</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8591407910025737</v>
+        <v>0.3340024549979717</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6558334400033345</v>
+        <v>2.332906751998962</v>
       </c>
       <c r="F41" t="n">
-        <v>8.873752498999238</v>
+        <v>0.8494336430012481</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1384,18 +1382,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>10.82210304000182</v>
+      </c>
       <c r="C42" t="n">
-        <v>0.4248962530000426</v>
+        <v>0.8867736009997316</v>
       </c>
       <c r="D42" t="n">
-        <v>4.357125717000599</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.199431171000469</v>
-      </c>
+        <v>0.4073899270006223</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>16.29396609300238</v>
+        <v>3.64720578700144</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1407,16 +1405,16 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>3.799722233998182</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.318291862000478</v>
-      </c>
+      <c r="B43" t="n">
+        <v>13.3484160400003</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.288628076999885</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>14.29005093199885</v>
+        <v>4.732874596000329</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1428,18 +1426,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>34.66406260700023</v>
+      </c>
       <c r="C44" t="n">
-        <v>12.11477227199794</v>
+        <v>4.540378182002314</v>
       </c>
       <c r="D44" t="n">
-        <v>2.307753089000471</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4.809365891000198</v>
-      </c>
+        <v>13.08930672499991</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>24.4806257909986</v>
+        <v>3.64804352200008</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1451,18 +1449,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>22.33729493099963</v>
+      </c>
       <c r="C45" t="n">
-        <v>0.5122618140012491</v>
+        <v>2.913579179999942</v>
       </c>
       <c r="D45" t="n">
-        <v>2.576383351999539</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.145016596001369</v>
-      </c>
+        <v>1.102720715000032</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>14.53678869600117</v>
+        <v>3.109323017000861</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1475,16 +1473,14 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41.44235247699908</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>19.51516083200113</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.053612070998497</v>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>3.97288507399935</v>
-      </c>
-      <c r="F46" t="n">
-        <v>9.954971274997661</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>rbn_N_50_ens_4</t>
@@ -1495,15 +1491,15 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>26.98951296499945</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.17296785399958</v>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>4.233620208997309</v>
-      </c>
-      <c r="F47" t="n">
-        <v>19.24156686399874</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>rbn_N_50_ens_5</t>
@@ -1514,15 +1510,15 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>18.58824383799947</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.284064004001266</v>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>1.882919980002043</v>
-      </c>
-      <c r="F48" t="n">
-        <v>14.26685066999926</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>rbn_N_50_ens_6</t>
@@ -1533,18 +1529,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>30.67538842000067</v>
+      </c>
       <c r="C49" t="n">
-        <v>1.550355298000795</v>
+        <v>4.413242433001869</v>
       </c>
       <c r="D49" t="n">
-        <v>3.925738122001349</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.54648553899824</v>
-      </c>
+        <v>2.844075417997374</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>20.44437021799968</v>
+        <v>5.7234318899973</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1558,16 +1554,14 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1.773718704000203</v>
+        <v>36.36657141899923</v>
       </c>
       <c r="D50" t="n">
-        <v>2.711988349998137</v>
-      </c>
-      <c r="E50" t="n">
-        <v>35.30828709799971</v>
-      </c>
+        <v>2.810518524001964</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>43.53139132499928</v>
+        <v>4.092761645002611</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1579,17 +1573,17 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>20.56668698299836</v>
+      </c>
       <c r="C51" t="n">
-        <v>10.884294184998</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>1.684044280002126</v>
-      </c>
-      <c r="F51" t="n">
-        <v>14.58904015000007</v>
-      </c>
+        <v>2.463022567000735</v>
+      </c>
+      <c r="D51" t="n">
+        <v>26.04769611600204</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>rbn_N_50_ens_9</t>
